--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Arándano (blue).xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Arándano (blue).xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44881</v>
+        <v>44874</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N2" t="n">
-        <v>11250</v>
+        <v>7500</v>
       </c>
       <c r="O2" t="n">
-        <v>11250</v>
+        <v>8000</v>
       </c>
       <c r="P2" t="n">
-        <v>11250</v>
+        <v>7750</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>11250</v>
+        <v>7750</v>
       </c>
       <c r="T2" t="n">
         <v>1</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44874</v>
+        <v>44881</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N3" t="n">
-        <v>7500</v>
+        <v>11250</v>
       </c>
       <c r="O3" t="n">
-        <v>8000</v>
+        <v>11250</v>
       </c>
       <c r="P3" t="n">
-        <v>7750</v>
+        <v>11250</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>7750</v>
+        <v>11250</v>
       </c>
       <c r="T3" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Arándano (blue).xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Arándano (blue).xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44881</v>
+        <v>44923</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -600,35 +600,195 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
+        <v>80</v>
+      </c>
+      <c r="N3" t="n">
+        <v>7500</v>
+      </c>
+      <c r="O3" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P3" t="n">
+        <v>7625</v>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>$/bandeja 2,5 kilos</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>Región de Coquimbo</t>
+        </is>
+      </c>
+      <c r="S3" t="n">
+        <v>7625</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>44923</v>
+      </c>
+      <c r="E4" t="n">
+        <v>15</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>100101001</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Arándano (blue)</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
+        <v>80</v>
+      </c>
+      <c r="N4" t="n">
+        <v>7500</v>
+      </c>
+      <c r="O4" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P4" t="n">
+        <v>7625</v>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>$/bandeja 2,5 kilos</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>Región de Coquimbo</t>
+        </is>
+      </c>
+      <c r="S4" t="n">
+        <v>7625</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>44881</v>
+      </c>
+      <c r="E5" t="n">
+        <v>15</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>100101001</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Arándano (blue)</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M3" t="n">
+      <c r="M5" t="n">
         <v>100</v>
       </c>
-      <c r="N3" t="n">
+      <c r="N5" t="n">
         <v>11250</v>
       </c>
-      <c r="O3" t="n">
+      <c r="O5" t="n">
         <v>11250</v>
       </c>
-      <c r="P3" t="n">
+      <c r="P5" t="n">
         <v>11250</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>$/bandeja 2,5 kilos</t>
         </is>
       </c>
-      <c r="R3" t="inlineStr">
+      <c r="R5" t="inlineStr">
         <is>
           <t>Región de Coquimbo</t>
         </is>
       </c>
-      <c r="S3" t="n">
+      <c r="S5" t="n">
         <v>11250</v>
       </c>
-      <c r="T3" t="n">
+      <c r="T5" t="n">
         <v>1</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Arándano (blue).xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Arándano (blue).xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44874</v>
+        <v>44881</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N2" t="n">
-        <v>7500</v>
+        <v>11250</v>
       </c>
       <c r="O2" t="n">
-        <v>8000</v>
+        <v>11250</v>
       </c>
       <c r="P2" t="n">
-        <v>7750</v>
+        <v>11250</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>7750</v>
+        <v>11250</v>
       </c>
       <c r="T2" t="n">
         <v>1</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44923</v>
+        <v>44874</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="N3" t="n">
         <v>7500</v>
@@ -613,7 +613,7 @@
         <v>8000</v>
       </c>
       <c r="P3" t="n">
-        <v>7625</v>
+        <v>7750</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>7625</v>
+        <v>7750</v>
       </c>
       <c r="T3" t="n">
         <v>1</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44881</v>
+        <v>44923</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N5" t="n">
-        <v>11250</v>
+        <v>7500</v>
       </c>
       <c r="O5" t="n">
-        <v>11250</v>
+        <v>8000</v>
       </c>
       <c r="P5" t="n">
-        <v>11250</v>
+        <v>7625</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>11250</v>
+        <v>7625</v>
       </c>
       <c r="T5" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Arándano (blue).xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Arándano (blue).xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44881</v>
+        <v>44874</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N2" t="n">
-        <v>11250</v>
+        <v>7500</v>
       </c>
       <c r="O2" t="n">
-        <v>11250</v>
+        <v>8000</v>
       </c>
       <c r="P2" t="n">
-        <v>11250</v>
+        <v>7750</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>11250</v>
+        <v>7750</v>
       </c>
       <c r="T2" t="n">
         <v>1</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44874</v>
+        <v>44923</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="N3" t="n">
         <v>7500</v>
@@ -613,7 +613,7 @@
         <v>8000</v>
       </c>
       <c r="P3" t="n">
-        <v>7750</v>
+        <v>7625</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>7750</v>
+        <v>7625</v>
       </c>
       <c r="T3" t="n">
         <v>1</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44923</v>
+        <v>44881</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N5" t="n">
-        <v>7500</v>
+        <v>11250</v>
       </c>
       <c r="O5" t="n">
-        <v>8000</v>
+        <v>11250</v>
       </c>
       <c r="P5" t="n">
-        <v>7625</v>
+        <v>11250</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>7625</v>
+        <v>11250</v>
       </c>
       <c r="T5" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Arándano (blue).xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Arándano (blue).xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44874</v>
+        <v>44923</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="N2" t="n">
         <v>7500</v>
@@ -533,7 +533,7 @@
         <v>8000</v>
       </c>
       <c r="P2" t="n">
-        <v>7750</v>
+        <v>7625</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>7750</v>
+        <v>7625</v>
       </c>
       <c r="T2" t="n">
         <v>1</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44881</v>
+        <v>44923</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N3" t="n">
-        <v>11250</v>
+        <v>7500</v>
       </c>
       <c r="O3" t="n">
-        <v>11250</v>
+        <v>8000</v>
       </c>
       <c r="P3" t="n">
-        <v>11250</v>
+        <v>7625</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>11250</v>
+        <v>7625</v>
       </c>
       <c r="T3" t="n">
         <v>1</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44923</v>
+        <v>44874</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="N4" t="n">
         <v>7500</v>
@@ -693,7 +693,7 @@
         <v>8000</v>
       </c>
       <c r="P4" t="n">
-        <v>7625</v>
+        <v>7750</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>7625</v>
+        <v>7750</v>
       </c>
       <c r="T4" t="n">
         <v>1</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44923</v>
+        <v>44881</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N5" t="n">
-        <v>7500</v>
+        <v>11250</v>
       </c>
       <c r="O5" t="n">
-        <v>8000</v>
+        <v>11250</v>
       </c>
       <c r="P5" t="n">
-        <v>7625</v>
+        <v>11250</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>7625</v>
+        <v>11250</v>
       </c>
       <c r="T5" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Arándano (blue).xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Arándano (blue).xlsx
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44874</v>
+        <v>44881</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N4" t="n">
-        <v>7500</v>
+        <v>11250</v>
       </c>
       <c r="O4" t="n">
-        <v>8000</v>
+        <v>11250</v>
       </c>
       <c r="P4" t="n">
-        <v>7750</v>
+        <v>11250</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>7750</v>
+        <v>11250</v>
       </c>
       <c r="T4" t="n">
         <v>1</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44881</v>
+        <v>44874</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N5" t="n">
-        <v>11250</v>
+        <v>7500</v>
       </c>
       <c r="O5" t="n">
-        <v>11250</v>
+        <v>8000</v>
       </c>
       <c r="P5" t="n">
-        <v>11250</v>
+        <v>7750</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>11250</v>
+        <v>7750</v>
       </c>
       <c r="T5" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Arándano (blue).xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Arándano (blue).xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44923</v>
+        <v>44881</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N2" t="n">
-        <v>7500</v>
+        <v>11250</v>
       </c>
       <c r="O2" t="n">
-        <v>8000</v>
+        <v>11250</v>
       </c>
       <c r="P2" t="n">
-        <v>7625</v>
+        <v>11250</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>7625</v>
+        <v>11250</v>
       </c>
       <c r="T2" t="n">
         <v>1</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44881</v>
+        <v>44923</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N4" t="n">
-        <v>11250</v>
+        <v>7500</v>
       </c>
       <c r="O4" t="n">
-        <v>11250</v>
+        <v>8000</v>
       </c>
       <c r="P4" t="n">
-        <v>11250</v>
+        <v>7625</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>11250</v>
+        <v>7625</v>
       </c>
       <c r="T4" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Arándano (blue).xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Arándano (blue).xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44881</v>
+        <v>44923</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N2" t="n">
-        <v>11250</v>
+        <v>7500</v>
       </c>
       <c r="O2" t="n">
-        <v>11250</v>
+        <v>8000</v>
       </c>
       <c r="P2" t="n">
-        <v>11250</v>
+        <v>7625</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>11250</v>
+        <v>7625</v>
       </c>
       <c r="T2" t="n">
         <v>1</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44923</v>
+        <v>44881</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N4" t="n">
-        <v>7500</v>
+        <v>11250</v>
       </c>
       <c r="O4" t="n">
-        <v>8000</v>
+        <v>11250</v>
       </c>
       <c r="P4" t="n">
-        <v>7625</v>
+        <v>11250</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>7625</v>
+        <v>11250</v>
       </c>
       <c r="T4" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Arándano (blue).xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Arándano (blue).xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44923</v>
+        <v>44874</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="N2" t="n">
         <v>7500</v>
@@ -533,7 +533,7 @@
         <v>8000</v>
       </c>
       <c r="P2" t="n">
-        <v>7625</v>
+        <v>7750</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>7625</v>
+        <v>7750</v>
       </c>
       <c r="T2" t="n">
         <v>1</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44881</v>
+        <v>44923</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N4" t="n">
-        <v>11250</v>
+        <v>7500</v>
       </c>
       <c r="O4" t="n">
-        <v>11250</v>
+        <v>8000</v>
       </c>
       <c r="P4" t="n">
-        <v>11250</v>
+        <v>7625</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>11250</v>
+        <v>7625</v>
       </c>
       <c r="T4" t="n">
         <v>1</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44874</v>
+        <v>44881</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N5" t="n">
-        <v>7500</v>
+        <v>11250</v>
       </c>
       <c r="O5" t="n">
-        <v>8000</v>
+        <v>11250</v>
       </c>
       <c r="P5" t="n">
-        <v>7750</v>
+        <v>11250</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>7750</v>
+        <v>11250</v>
       </c>
       <c r="T5" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Arándano (blue).xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Arándano (blue).xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44874</v>
+        <v>44881</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N2" t="n">
-        <v>7500</v>
+        <v>11250</v>
       </c>
       <c r="O2" t="n">
-        <v>8000</v>
+        <v>11250</v>
       </c>
       <c r="P2" t="n">
-        <v>7750</v>
+        <v>11250</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>7750</v>
+        <v>11250</v>
       </c>
       <c r="T2" t="n">
         <v>1</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44881</v>
+        <v>44874</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N5" t="n">
-        <v>11250</v>
+        <v>7500</v>
       </c>
       <c r="O5" t="n">
-        <v>11250</v>
+        <v>8000</v>
       </c>
       <c r="P5" t="n">
-        <v>11250</v>
+        <v>7750</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>11250</v>
+        <v>7750</v>
       </c>
       <c r="T5" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Arándano (blue).xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Arándano (blue).xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44881</v>
+        <v>44874</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N2" t="n">
-        <v>11250</v>
+        <v>7500</v>
       </c>
       <c r="O2" t="n">
-        <v>11250</v>
+        <v>8000</v>
       </c>
       <c r="P2" t="n">
-        <v>11250</v>
+        <v>7750</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>11250</v>
+        <v>7750</v>
       </c>
       <c r="T2" t="n">
         <v>1</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44874</v>
+        <v>44881</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N5" t="n">
-        <v>7500</v>
+        <v>11250</v>
       </c>
       <c r="O5" t="n">
-        <v>8000</v>
+        <v>11250</v>
       </c>
       <c r="P5" t="n">
-        <v>7750</v>
+        <v>11250</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>7750</v>
+        <v>11250</v>
       </c>
       <c r="T5" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Arándano (blue).xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Arándano (blue).xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44881</v>
+        <v>44923</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N2" t="n">
-        <v>11250</v>
+        <v>7500</v>
       </c>
       <c r="O2" t="n">
-        <v>11250</v>
+        <v>8000</v>
       </c>
       <c r="P2" t="n">
-        <v>11250</v>
+        <v>7625</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>11250</v>
+        <v>7625</v>
       </c>
       <c r="T2" t="n">
         <v>1</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44923</v>
+        <v>44874</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="N4" t="n">
         <v>7500</v>
@@ -693,7 +693,7 @@
         <v>8000</v>
       </c>
       <c r="P4" t="n">
-        <v>7625</v>
+        <v>7750</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>7625</v>
+        <v>7750</v>
       </c>
       <c r="T4" t="n">
         <v>1</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44874</v>
+        <v>44881</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N5" t="n">
-        <v>7500</v>
+        <v>11250</v>
       </c>
       <c r="O5" t="n">
-        <v>8000</v>
+        <v>11250</v>
       </c>
       <c r="P5" t="n">
-        <v>7750</v>
+        <v>11250</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>7750</v>
+        <v>11250</v>
       </c>
       <c r="T5" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Arándano (blue).xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Arándano (blue).xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44923</v>
+        <v>44874</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="N2" t="n">
         <v>7500</v>
@@ -533,7 +533,7 @@
         <v>8000</v>
       </c>
       <c r="P2" t="n">
-        <v>7625</v>
+        <v>7750</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>7625</v>
+        <v>7750</v>
       </c>
       <c r="T2" t="n">
         <v>1</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44874</v>
+        <v>44923</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="N4" t="n">
         <v>7500</v>
@@ -693,7 +693,7 @@
         <v>8000</v>
       </c>
       <c r="P4" t="n">
-        <v>7750</v>
+        <v>7625</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>7750</v>
+        <v>7625</v>
       </c>
       <c r="T4" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Arándano (blue).xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Arándano (blue).xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44881</v>
+        <v>44923</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N2" t="n">
-        <v>11250</v>
+        <v>7500</v>
       </c>
       <c r="O2" t="n">
-        <v>11250</v>
+        <v>8000</v>
       </c>
       <c r="P2" t="n">
-        <v>11250</v>
+        <v>7625</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>11250</v>
+        <v>7625</v>
       </c>
       <c r="T2" t="n">
         <v>1</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44874</v>
+        <v>44923</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="N3" t="n">
         <v>7500</v>
@@ -613,7 +613,7 @@
         <v>8000</v>
       </c>
       <c r="P3" t="n">
-        <v>7750</v>
+        <v>7625</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>7750</v>
+        <v>7625</v>
       </c>
       <c r="T3" t="n">
         <v>1</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44923</v>
+        <v>44881</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N4" t="n">
-        <v>7500</v>
+        <v>11250</v>
       </c>
       <c r="O4" t="n">
-        <v>8000</v>
+        <v>11250</v>
       </c>
       <c r="P4" t="n">
-        <v>7625</v>
+        <v>11250</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>7625</v>
+        <v>11250</v>
       </c>
       <c r="T4" t="n">
         <v>1</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44923</v>
+        <v>44874</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="N5" t="n">
         <v>7500</v>
@@ -773,7 +773,7 @@
         <v>8000</v>
       </c>
       <c r="P5" t="n">
-        <v>7625</v>
+        <v>7750</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>7625</v>
+        <v>7750</v>
       </c>
       <c r="T5" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Arándano (blue).xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Arándano (blue).xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44923</v>
+        <v>44881</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N2" t="n">
-        <v>7500</v>
+        <v>11250</v>
       </c>
       <c r="O2" t="n">
-        <v>8000</v>
+        <v>11250</v>
       </c>
       <c r="P2" t="n">
-        <v>7625</v>
+        <v>11250</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>7625</v>
+        <v>11250</v>
       </c>
       <c r="T2" t="n">
         <v>1</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44923</v>
+        <v>44874</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="N3" t="n">
         <v>7500</v>
@@ -613,7 +613,7 @@
         <v>8000</v>
       </c>
       <c r="P3" t="n">
-        <v>7625</v>
+        <v>7750</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>7625</v>
+        <v>7750</v>
       </c>
       <c r="T3" t="n">
         <v>1</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44881</v>
+        <v>44923</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N4" t="n">
-        <v>11250</v>
+        <v>7500</v>
       </c>
       <c r="O4" t="n">
-        <v>11250</v>
+        <v>8000</v>
       </c>
       <c r="P4" t="n">
-        <v>11250</v>
+        <v>7625</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>11250</v>
+        <v>7625</v>
       </c>
       <c r="T4" t="n">
         <v>1</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44874</v>
+        <v>44923</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="N5" t="n">
         <v>7500</v>
@@ -773,7 +773,7 @@
         <v>8000</v>
       </c>
       <c r="P5" t="n">
-        <v>7750</v>
+        <v>7625</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>7750</v>
+        <v>7625</v>
       </c>
       <c r="T5" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Arándano (blue).xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Arándano (blue).xlsx
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44874</v>
+        <v>44923</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="N3" t="n">
         <v>7500</v>
@@ -613,7 +613,7 @@
         <v>8000</v>
       </c>
       <c r="P3" t="n">
-        <v>7750</v>
+        <v>7625</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>7750</v>
+        <v>7625</v>
       </c>
       <c r="T3" t="n">
         <v>1</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44923</v>
+        <v>44874</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="N5" t="n">
         <v>7500</v>
@@ -773,7 +773,7 @@
         <v>8000</v>
       </c>
       <c r="P5" t="n">
-        <v>7625</v>
+        <v>7750</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>7625</v>
+        <v>7750</v>
       </c>
       <c r="T5" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Arándano (blue).xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Arándano (blue).xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44881</v>
+        <v>44923</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N2" t="n">
-        <v>11250</v>
+        <v>7500</v>
       </c>
       <c r="O2" t="n">
-        <v>11250</v>
+        <v>8000</v>
       </c>
       <c r="P2" t="n">
-        <v>11250</v>
+        <v>7625</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>11250</v>
+        <v>7625</v>
       </c>
       <c r="T2" t="n">
         <v>1</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44874</v>
+        <v>44923</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="N3" t="n">
         <v>7500</v>
@@ -613,7 +613,7 @@
         <v>8000</v>
       </c>
       <c r="P3" t="n">
-        <v>7750</v>
+        <v>7625</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>7750</v>
+        <v>7625</v>
       </c>
       <c r="T3" t="n">
         <v>1</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44923</v>
+        <v>44874</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="N4" t="n">
         <v>7500</v>
@@ -693,7 +693,7 @@
         <v>8000</v>
       </c>
       <c r="P4" t="n">
-        <v>7625</v>
+        <v>7750</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>7625</v>
+        <v>7750</v>
       </c>
       <c r="T4" t="n">
         <v>1</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44923</v>
+        <v>44881</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N5" t="n">
-        <v>7500</v>
+        <v>11250</v>
       </c>
       <c r="O5" t="n">
-        <v>8000</v>
+        <v>11250</v>
       </c>
       <c r="P5" t="n">
-        <v>7625</v>
+        <v>11250</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>7625</v>
+        <v>11250</v>
       </c>
       <c r="T5" t="n">
         <v>1</v>
